--- a/20150517-pain/builds/development/data/maindata.xlsx
+++ b/20150517-pain/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="32100" windowHeight="17160" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="drugsMPLS" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="painMPLS" sheetId="6" r:id="rId6"/>
     <sheet name="painStCloud" sheetId="7" r:id="rId7"/>
     <sheet name="painFargo" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="source" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="247">
   <si>
     <t>drug</t>
   </si>
@@ -709,12 +709,72 @@
   <si>
     <t>Source: Department of Veterans Affairs</t>
   </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>drugsMPLS</t>
+  </si>
+  <si>
+    <t>drugsStCloud</t>
+  </si>
+  <si>
+    <t>drugsFargo</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>percentage_combined</t>
+  </si>
+  <si>
+    <t>painMPLS</t>
+  </si>
+  <si>
+    <t>painStCloud</t>
+  </si>
+  <si>
+    <t>painFargo</t>
+  </si>
+  <si>
+    <t>Painkiller prescriptions by type given out by Fargo VA hospital 2001-2014</t>
+  </si>
+  <si>
+    <t>Painkiller prescriptions by type given out by St. Cloud VA hospital 2001-2014</t>
+  </si>
+  <si>
+    <t>Painkiller prescriptions by type given out by Minneapolis VA hospital 2001-2014</t>
+  </si>
+  <si>
+    <t>Patients with painkiller prescription by VA hospital, 2001-2014</t>
+  </si>
+  <si>
+    <t>FYAug2014</t>
+  </si>
+  <si>
+    <t>Percent change in painkiller pescriptions by type between 2001 and 2013</t>
+  </si>
+  <si>
+    <t>Major painkiller prescriptions by type at Minneapolis VA hospital, 2001-2014</t>
+  </si>
+  <si>
+    <t>Major painkiller prescriptions by type at St. Cloud VA hospital, 2001-2014</t>
+  </si>
+  <si>
+    <t>Major painkiller prescriptions by type at Fargo VA hospital, 2001-2014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -738,6 +798,24 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -756,10 +834,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -772,10 +854,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1338,10 +1426,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -21250,7 +21338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -21297,7 +21387,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>196</v>
       </c>
@@ -31142,26 +31234,105 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20150517-pain/builds/development/data/maindata.xlsx
+++ b/20150517-pain/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="32100" windowHeight="17160" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="1780" yWindow="1480" windowWidth="32100" windowHeight="17160" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="drugsMPLS" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="painStCloud" sheetId="7" r:id="rId7"/>
     <sheet name="painFargo" sheetId="8" r:id="rId8"/>
     <sheet name="source" sheetId="9" r:id="rId9"/>
+    <sheet name="layout" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="306">
   <si>
     <t>drug</t>
   </si>
@@ -769,6 +770,183 @@
   <si>
     <t>Major painkiller prescriptions by type at Fargo VA hospital, 2001-2014</t>
   </si>
+  <si>
+    <t>Drug name</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2001</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2002</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2003</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2004</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2005</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2006</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2007</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2008</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2009</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2010</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2011</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2012</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2013</t>
+  </si>
+  <si>
+    <t>Number of prescriptions in 2014 through August</t>
+  </si>
+  <si>
+    <t>VA facility name</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2001</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2002</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2003</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2004</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2005</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2006</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2007</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2008</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2009</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2010</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2011</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2012</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2013</t>
+  </si>
+  <si>
+    <t>Number of patients receiving pain medication prescriptions in 2014 through August</t>
+  </si>
+  <si>
+    <t>Percent increase in numbe of patients receiving pain medication prescriptions from 2001 to 2013</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2001</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2002</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2003</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2004</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2005</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2006</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2007</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2008</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2009</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2010</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2011</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2012</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people in 2013</t>
+  </si>
+  <si>
+    <t>Number of prescriptions per 100 people  in 2014 through August</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2001</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2002</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2003</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2004</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2005</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2006</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2007</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2008</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2009</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2010</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2011</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2012</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2013</t>
+  </si>
+  <si>
+    <t>Percentage of prescriptions that were for pain medications in 2014</t>
+  </si>
 </sst>
 </file>
 
@@ -834,14 +1012,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -855,15 +1099,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1195,7 +1506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1426,10 +1739,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7936,6 +8249,1719 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B222"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179:B221"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>213</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7948,7 +9974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -14686,6 +16714,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21072,7 +23101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -21326,6 +23357,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21339,7 +23371,7 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P1" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -28812,6 +30844,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -28824,7 +30857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -29616,6 +31651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -29628,7 +31664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -31236,8 +33272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -31255,14 +33291,14 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="13" customFormat="1">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>229</v>
       </c>
     </row>
